--- a/ScenarioTestDocs_MOBILE-12072022.xlsx
+++ b/ScenarioTestDocs_MOBILE-12072022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>Created By</t>
   </si>
@@ -482,6 +482,30 @@
   <si>
     <t>You did not confirm your password correctly</t>
   </si>
+  <si>
+    <t>Verify login with registered user</t>
+  </si>
+  <si>
+    <t>Verify login with unregistered user</t>
+  </si>
+  <si>
+    <t>2.  input username, password</t>
+  </si>
+  <si>
+    <t>3. Tap login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username = sum4                           password = sum4                 </t>
+  </si>
+  <si>
+    <t>redirect to dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username = sum4 1324                          password = sum434                </t>
+  </si>
+  <si>
+    <t>Incorrect username or password</t>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -922,19 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1140,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1217,285 +1228,270 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1009"/>
+  <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1736,20 +1732,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="54"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1802,22 +1798,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="61">
+      <c r="F3" s="88"/>
+      <c r="G3" s="90">
         <v>44741</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1870,15 +1866,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="116" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1916,7 +1912,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="47"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="10">
         <v>8</v>
       </c>
@@ -1978,29 +1974,29 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="89" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="36" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2"/>
@@ -2024,27 +2020,27 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="123"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2066,21 +2062,21 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="109" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="117" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2102,19 +2098,19 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="109" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="95" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2136,21 +2132,21 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="111" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="119" t="s">
+      <c r="E12" s="68"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="I12" s="54" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="2"/>
@@ -2174,25 +2170,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="106" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="116" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="123"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2214,21 +2210,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="109" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="117" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="123"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2250,19 +2246,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="109" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="95" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2284,21 +2280,21 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="111" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="119" t="s">
+      <c r="E16" s="68"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="124" t="s">
+      <c r="I16" s="54" t="s">
         <v>73</v>
       </c>
       <c r="J16" s="2"/>
@@ -2322,25 +2318,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="106" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="116" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="123"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2362,21 +2358,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="109" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="117" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="2"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2398,19 +2394,19 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="109" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="95" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="123"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="2"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2432,21 +2428,21 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="111" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="119" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="56" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="2"/>
@@ -2470,19 +2466,27 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="123"/>
+      <c r="C21" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="53"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2504,15 +2508,19 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="123"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2534,15 +2542,23 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="123"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -2564,15 +2580,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="125"/>
+      <c r="A24" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="53"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -2594,17 +2620,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="123"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2626,15 +2654,23 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="123"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
@@ -2655,19 +2691,31 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="123"/>
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="39"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="2"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2685,19 +2733,25 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
+    <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="111"/>
       <c r="B28" s="102"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="125"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="29"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2715,21 +2769,21 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99" t="s">
-        <v>21</v>
-      </c>
+    <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="111"/>
       <c r="B29" s="102"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="123"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="104"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2747,19 +2801,29 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
+    <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="112"/>
       <c r="B30" s="102"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="123"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2777,19 +2841,29 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97" t="s">
+        <v>18</v>
+      </c>
       <c r="B31" s="102"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="C31" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="108"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2807,19 +2881,25 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="2"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2837,32 +2917,24 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="80"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2"/>
+    <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="109"/>
+      <c r="F33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2879,26 +2951,28 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="100"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="98"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="115"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2915,22 +2989,30 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="100"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="2"/>
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="77"/>
+      <c r="F35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2947,30 +3029,24 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="101"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="2"/>
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2988,29 +3064,23 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="21">
+        <v>44742</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3027,26 +3097,24 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="2"/>
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3063,21 +3131,25 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="4"/>
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="71"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3098,23 +3170,23 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>6</v>
-      </c>
+      <c r="A40" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="83"/>
+      <c r="C40" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="77"/>
+      <c r="F40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3136,21 +3208,15 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="42"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="77"/>
       <c r="F41" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -3176,18 +3242,18 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="77"/>
+      <c r="F42" s="21">
+        <v>36703</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="15"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3210,15 +3276,15 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="21">
-        <v>44742</v>
+      <c r="A43" s="70"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="F43" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -3244,19 +3310,23 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="15"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3278,23 +3348,23 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="83"/>
+      <c r="C45" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="77"/>
+      <c r="F45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3316,19 +3386,15 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="42"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="77"/>
       <c r="F46" s="20" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -3354,18 +3420,18 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="77"/>
+      <c r="F47" s="21">
+        <v>44740</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="15"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -3388,15 +3454,15 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="21">
-        <v>36703</v>
+      <c r="A48" s="70"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="78"/>
+      <c r="F48" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -3422,19 +3488,23 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="15"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="80"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3456,23 +3526,23 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="83"/>
+      <c r="C50" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="77"/>
+      <c r="F50" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3494,19 +3564,15 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="42"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="77"/>
       <c r="F51" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
@@ -3532,18 +3598,18 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="77"/>
+      <c r="F52" s="21">
+        <v>44741</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="15"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3566,15 +3632,15 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="21">
-        <v>44740</v>
+      <c r="A53" s="70"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="78"/>
+      <c r="F53" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3600,19 +3666,23 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="15"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3634,23 +3704,23 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A55" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3672,20 +3742,14 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="A56" s="69"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="100"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="15"/>
@@ -3710,18 +3774,14 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="15"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3744,16 +3804,12 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="21">
-        <v>44741</v>
-      </c>
+      <c r="A58" s="69"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="15"/>
@@ -3778,19 +3834,21 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="15"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3812,23 +3870,15 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3850,23 +3900,15 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="15"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3888,17 +3930,15 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="15"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3920,15 +3960,15 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="15"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3950,15 +3990,15 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="15"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3980,21 +4020,15 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4016,15 +4050,6 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4046,15 +4071,6 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4076,15 +4092,6 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4106,15 +4113,6 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4136,15 +4134,6 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4196,6 +4185,15 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4217,6 +4215,15 @@
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4238,6 +4245,15 @@
       <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4259,6 +4275,15 @@
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4280,6 +4305,15 @@
       <c r="AB75" s="3"/>
     </row>
     <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -8470,185 +8504,185 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-      <c r="U216" s="3"/>
-      <c r="V216" s="3"/>
-      <c r="W216" s="3"/>
-      <c r="X216" s="3"/>
-      <c r="Y216" s="3"/>
-      <c r="Z216" s="3"/>
-      <c r="AA216" s="3"/>
-      <c r="AB216" s="3"/>
-    </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
-      <c r="W217" s="3"/>
-      <c r="X217" s="3"/>
-      <c r="Y217" s="3"/>
-      <c r="Z217" s="3"/>
-      <c r="AA217" s="3"/>
-      <c r="AB217" s="3"/>
-    </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3"/>
-      <c r="X218" s="3"/>
-      <c r="Y218" s="3"/>
-      <c r="Z218" s="3"/>
-      <c r="AA218" s="3"/>
-      <c r="AB218" s="3"/>
-    </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-      <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="3"/>
-      <c r="Z219" s="3"/>
-      <c r="AA219" s="3"/>
-      <c r="AB219" s="3"/>
-    </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-      <c r="X220" s="3"/>
-      <c r="Y220" s="3"/>
-      <c r="Z220" s="3"/>
-      <c r="AA220" s="3"/>
-      <c r="AB220" s="3"/>
-    </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
-      <c r="Z221" s="3"/>
-      <c r="AA221" s="3"/>
-      <c r="AB221" s="3"/>
+    <row r="216" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
+      <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
+      <c r="AB216" s="2"/>
+    </row>
+    <row r="217" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
+      <c r="X217" s="2"/>
+      <c r="Y217" s="2"/>
+      <c r="Z217" s="2"/>
+      <c r="AA217" s="2"/>
+      <c r="AB217" s="2"/>
+    </row>
+    <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="2"/>
+      <c r="X218" s="2"/>
+      <c r="Y218" s="2"/>
+      <c r="Z218" s="2"/>
+      <c r="AA218" s="2"/>
+      <c r="AB218" s="2"/>
+    </row>
+    <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2"/>
+      <c r="V219" s="2"/>
+      <c r="W219" s="2"/>
+      <c r="X219" s="2"/>
+      <c r="Y219" s="2"/>
+      <c r="Z219" s="2"/>
+      <c r="AA219" s="2"/>
+      <c r="AB219" s="2"/>
+    </row>
+    <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2"/>
+      <c r="V220" s="2"/>
+      <c r="W220" s="2"/>
+      <c r="X220" s="2"/>
+      <c r="Y220" s="2"/>
+      <c r="Z220" s="2"/>
+      <c r="AA220" s="2"/>
+      <c r="AB220" s="2"/>
+    </row>
+    <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="2"/>
+      <c r="X221" s="2"/>
+      <c r="Y221" s="2"/>
+      <c r="Z221" s="2"/>
+      <c r="AA221" s="2"/>
+      <c r="AB221" s="2"/>
     </row>
     <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
@@ -8710,197 +8744,23 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
-      <c r="AA224" s="2"/>
-      <c r="AB224" s="2"/>
-    </row>
-    <row r="225" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
-      <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
-    </row>
-    <row r="226" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="2"/>
-      <c r="Y226" s="2"/>
-      <c r="Z226" s="2"/>
-      <c r="AA226" s="2"/>
-      <c r="AB226" s="2"/>
-    </row>
-    <row r="227" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-      <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
-    </row>
-    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2"/>
-      <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
-      <c r="Y228" s="2"/>
-      <c r="Z228" s="2"/>
-      <c r="AA228" s="2"/>
-      <c r="AB228" s="2"/>
-    </row>
-    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2"/>
-      <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Y229" s="2"/>
-      <c r="Z229" s="2"/>
-      <c r="AA229" s="2"/>
-      <c r="AB229" s="2"/>
-    </row>
-    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9664,20 +9524,83 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="89">
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B35:B54"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D17:E17"/>
@@ -9686,89 +9609,12 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B41:B60"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTestDocs_MOBILE-12072022.xlsx
+++ b/ScenarioTestDocs_MOBILE-12072022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>Created By</t>
   </si>
@@ -87,49 +87,254 @@
     <t>BU_005</t>
   </si>
   <si>
-    <t>1. Select Facility</t>
-  </si>
-  <si>
-    <t>2. Select HealthCare Program</t>
-  </si>
-  <si>
-    <t>3. Input Visit Date</t>
-  </si>
-  <si>
-    <t>4. Input Comment</t>
-  </si>
-  <si>
-    <t>Tokyo CURA Healthcare Center</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>4. Click Book Appointment</t>
-  </si>
-  <si>
-    <t>Directed to Appointment summary page</t>
-  </si>
-  <si>
-    <t>Failed to Book an Appointment</t>
-  </si>
-  <si>
     <t>BU_006</t>
   </si>
   <si>
     <t>BU_007</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>1. Click Navigation menu</t>
-  </si>
-  <si>
-    <t>2. Click Logout</t>
-  </si>
-  <si>
-    <t>Logout success</t>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Appointment  from CURA Healthcare Service </t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>1. Open Application</t>
+  </si>
+  <si>
+    <t>2. Go to accounts</t>
+  </si>
+  <si>
+    <t>3. Tap add new accounts</t>
+  </si>
+  <si>
+    <t>account name = account7
+balance = 500</t>
+  </si>
+  <si>
+    <t>Apps open</t>
+  </si>
+  <si>
+    <t>Apss open</t>
+  </si>
+  <si>
+    <t>Account page show</t>
+  </si>
+  <si>
+    <t>Account created</t>
+  </si>
+  <si>
+    <t>account name = account1
+balance = 500</t>
+  </si>
+  <si>
+    <t>You already have an account with that name</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify create profile with valid input</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify create profile using registered username</t>
+  </si>
+  <si>
+    <t>Verify create profile with invalid confirm password</t>
+  </si>
+  <si>
+    <t>2. Tap create a profile</t>
+  </si>
+  <si>
+    <t>3. Input First name, Last name, Country, Username, Password, Confirm password</t>
+  </si>
+  <si>
+    <t>4. Tap Create Profile</t>
+  </si>
+  <si>
+    <t>4. Input account name &amp; balance</t>
+  </si>
+  <si>
+    <t>Create profile page show</t>
+  </si>
+  <si>
+    <t>firstname = sum5
+lastname = sum5                       country = indonesia                     username = sum5                            password = sum5                        confirm password = sum 5</t>
+  </si>
+  <si>
+    <t>profile created</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>A user has already taken that name</t>
+  </si>
+  <si>
+    <t>firstname = sum6
+lastname = sum6                       country = indonesia                     username = sum6                            password = sum6                        confirm password = nooo</t>
+  </si>
+  <si>
+    <t>You did not confirm your password correctly</t>
+  </si>
+  <si>
+    <t>Verify login with registered user</t>
+  </si>
+  <si>
+    <t>Verify login with unregistered user</t>
+  </si>
+  <si>
+    <t>2.  input username, password</t>
+  </si>
+  <si>
+    <t>3. Tap login</t>
+  </si>
+  <si>
+    <t>redirect to dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username = sum4 1324                          password = sum434                </t>
+  </si>
+  <si>
+    <t>Incorrect username or password</t>
+  </si>
+  <si>
+    <r>
+      <t>Required (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BU_001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) Verify create new accounts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(BU_001)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify create new accounts using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>registered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> account name</t>
+    </r>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>Deposit modal show</t>
+  </si>
+  <si>
+    <t>2. Go to Make a deposit</t>
+  </si>
+  <si>
+    <t>3. Select account and Input amount</t>
+  </si>
+  <si>
+    <t>account1                                               100</t>
+  </si>
+  <si>
+    <t>4. Tap DEPOSIT</t>
+  </si>
+  <si>
+    <t>Deposit of $10.00 made successfully</t>
+  </si>
+  <si>
+    <t>BU_008</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>BU_009</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(BU_001) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify make doposit</t>
+    </r>
   </si>
   <si>
     <r>
@@ -152,20 +357,38 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Logout suceess</t>
+      <t>Verify add new payee</t>
     </r>
   </si>
   <si>
-    <t>Medicaid</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Hongkong CURA Healthcare Center</t>
-  </si>
-  <si>
-    <t>Seoul CURA Healthcare Center</t>
+    <t>2. Go to Make a payment</t>
+  </si>
+  <si>
+    <t>Payment page show</t>
+  </si>
+  <si>
+    <t>3. Tap Add a Payee</t>
+  </si>
+  <si>
+    <t>4. Input payee name</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>5. Tap ADD</t>
+  </si>
+  <si>
+    <t>Payee add successfully</t>
+  </si>
+  <si>
+    <t>3. Input amount</t>
+  </si>
+  <si>
+    <t>4. Tap PAYMENT</t>
+  </si>
+  <si>
+    <t>Payment of $40.00 successfully made</t>
   </si>
   <si>
     <r>
@@ -183,32 +406,12 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sucess</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Book an appoitment (Hongkong CURA Healthcare Center, None)</t>
+      <t>Verify make payment with sufficient ammount input</t>
     </r>
   </si>
   <si>
@@ -227,13 +430,50 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Failed</t>
+      <t>Verify make payment with insufficient ammount input</t>
+    </r>
+  </si>
+  <si>
+    <t>You do not have sufficient amount to make this payment</t>
+  </si>
+  <si>
+    <t>TEST MENU WITH EMPTY ACCOUNTS</t>
+  </si>
+  <si>
+    <t>BU_010</t>
+  </si>
+  <si>
+    <t>BU_011</t>
+  </si>
+  <si>
+    <t>BU_012</t>
+  </si>
+  <si>
+    <t>BU_013</t>
+  </si>
+  <si>
+    <t>BU_014</t>
+  </si>
+  <si>
+    <t>BU_015</t>
+  </si>
+  <si>
+    <t>2. Go to Make a Deposit</t>
+  </si>
+  <si>
+    <t>Deposit error, you do not have enough accounts to make a deposit</t>
+  </si>
+  <si>
+    <t>Add an account with this button below</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required </t>
     </r>
     <r>
       <rPr>
@@ -243,7 +483,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(BU_001)</t>
     </r>
     <r>
       <rPr>
@@ -252,17 +492,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Book an appoitment (Tokyo CURA Healthcare Center, Medicare) when appointment date is in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PAST</t>
+      <t xml:space="preserve"> Verify accounts with empty account</t>
     </r>
   </si>
   <si>
@@ -281,13 +511,17 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Success</t>
+      <t>Verify make deposit with empty account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required </t>
     </r>
     <r>
       <rPr>
@@ -297,7 +531,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(BU_001)</t>
     </r>
     <r>
       <rPr>
@@ -306,12 +540,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Book an appoitment (Tokyo CURA Healthcare Center, Medicare)</t>
+      <t xml:space="preserve"> Verify dashboard with empty account</t>
     </r>
   </si>
   <si>
+    <t>2. Go to dashboard</t>
+  </si>
+  <si>
+    <t>Add Account Button</t>
+  </si>
+  <si>
     <r>
-      <t>Required (</t>
+      <t xml:space="preserve">Required </t>
     </r>
     <r>
       <rPr>
@@ -321,17 +561,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">BU_001) </t>
+      <t>(BU_001)</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Success</t>
+      <t xml:space="preserve"> Verify make payment with empy account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required </t>
     </r>
     <r>
       <rPr>
@@ -341,7 +585,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(BU_001)</t>
     </r>
     <r>
       <rPr>
@@ -350,46 +594,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Book an appoitment (Seoul CURA Healthcare, MedicaId)</t>
+      <t xml:space="preserve"> Verify make transfer with empy account</t>
     </r>
   </si>
   <si>
-    <t>Chandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Appointment  from CURA Healthcare Service </t>
-  </si>
-  <si>
-    <t>ACCOUNTS</t>
-  </si>
-  <si>
-    <t>1. Open Application</t>
-  </si>
-  <si>
-    <t>2. Go to accounts</t>
-  </si>
-  <si>
-    <t>3. Tap add new accounts</t>
-  </si>
-  <si>
-    <t>account name = account7
-balance = 500</t>
-  </si>
-  <si>
-    <t>Apps open</t>
-  </si>
-  <si>
-    <t>Apss open</t>
-  </si>
-  <si>
-    <t>Account page show</t>
-  </si>
-  <si>
-    <t>Account created</t>
+    <t>Payment error, you do not have enough accounts to make a payment</t>
+  </si>
+  <si>
+    <t>Transfer error, you do not have enough accounts to make a transfer</t>
+  </si>
+  <si>
+    <t>2. Go to Make a Payment</t>
+  </si>
+  <si>
+    <t>2. Go to Make a Transfer</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify create new accounts using </t>
+      <t xml:space="preserve">Required </t>
     </r>
     <r>
       <rPr>
@@ -399,7 +624,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>registered</t>
+      <t>(BU_001)</t>
     </r>
     <r>
       <rPr>
@@ -408,110 +633,39 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> account name</t>
+      <t xml:space="preserve"> Verify make transfer</t>
     </r>
   </si>
   <si>
-    <t>account name = account1
-balance = 500</t>
-  </si>
-  <si>
-    <t>You already have an account with that name</t>
-  </si>
-  <si>
-    <t>PROFILE</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>Required () Verify create new accounts</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify create profile with valid input</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify create profile using registered username</t>
-  </si>
-  <si>
-    <t>Verify create profile with invalid confirm password</t>
-  </si>
-  <si>
-    <t>2. Tap create a profile</t>
-  </si>
-  <si>
-    <t>3. Input First name, Last name, Country, Username, Password, Confirm password</t>
-  </si>
-  <si>
-    <t>4. Tap Create Profile</t>
-  </si>
-  <si>
-    <t>4. Input account name &amp; balance</t>
-  </si>
-  <si>
-    <t>Create profile page show</t>
-  </si>
-  <si>
-    <t>firstname = sum5
-lastname = sum5                       country = indonesia                     username = sum5                            password = sum5                        confirm password = sum 5</t>
-  </si>
-  <si>
-    <t>profile created</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>A user has already taken that name</t>
-  </si>
-  <si>
-    <t>firstname = sum6
-lastname = sum6                       country = indonesia                     username = sum6                            password = sum6                        confirm password = nooo</t>
-  </si>
-  <si>
-    <t>You did not confirm your password correctly</t>
-  </si>
-  <si>
-    <t>Verify login with registered user</t>
-  </si>
-  <si>
-    <t>Verify login with unregistered user</t>
-  </si>
-  <si>
-    <t>2.  input username, password</t>
-  </si>
-  <si>
-    <t>3. Tap login</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> username = sum4                           password = sum4                 </t>
-  </si>
-  <si>
-    <t>redirect to dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> username = sum4 1324                          password = sum434                </t>
-  </si>
-  <si>
-    <t>Incorrect username or password</t>
+    <t>3. select sending a ccount, input amount</t>
+  </si>
+  <si>
+    <t>4. select receiver account</t>
+  </si>
+  <si>
+    <t>5. Tap Confirm Transfer</t>
+  </si>
+  <si>
+    <t>Page transfer show</t>
+  </si>
+  <si>
+    <t>account1                                            500</t>
+  </si>
+  <si>
+    <t>account2</t>
+  </si>
+  <si>
+    <t>Transfer of $500.00 successfully made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username = sum4                           password = sum4                 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -569,15 +723,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,14 +737,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1147,11 +1288,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1195,199 +1373,243 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1396,10 +1618,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1409,6 +1627,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,81 +1639,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1003"/>
+  <dimension ref="A1:AB978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1732,20 +2009,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1798,22 +2075,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="90">
+      <c r="F3" s="78"/>
+      <c r="G3" s="104">
         <v>44741</v>
       </c>
-      <c r="H3" s="86"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1866,15 +2143,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="91" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1912,7 +2189,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="71"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="10">
         <v>8</v>
       </c>
@@ -1974,29 +2251,29 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2"/>
@@ -2020,27 +2297,27 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="53"/>
+      <c r="B9" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="46"/>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2062,21 +2339,21 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="53"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="46"/>
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2098,19 +2375,19 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2132,22 +2409,22 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>73</v>
+      <c r="A12" s="107"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
@@ -2170,25 +2447,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="53"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="46"/>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2210,21 +2487,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="53"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="46"/>
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2246,19 +2523,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2280,22 +2557,22 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>73</v>
+      <c r="A16" s="107"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
@@ -2318,25 +2595,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="53"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="46"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2358,21 +2635,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="53"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="46"/>
       <c r="J18" s="2"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2394,19 +2671,19 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="2"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2428,22 +2705,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>73</v>
+      <c r="A20" s="107"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="80"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="144" t="s">
+        <v>49</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2466,27 +2743,27 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="48" t="s">
+      <c r="B21" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="53"/>
+      <c r="D21" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="145"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2508,19 +2785,19 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="145"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2542,22 +2819,22 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="56" t="s">
-        <v>73</v>
+      <c r="A23" s="84"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="144" t="s">
+        <v>49</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
@@ -2580,25 +2857,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="53"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="145"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -2620,19 +2897,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="145"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2654,22 +2931,22 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="56" t="s">
-        <v>73</v>
+      <c r="A26" s="84"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="144" t="s">
+        <v>49</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
@@ -2692,27 +2969,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="39"/>
+      <c r="A27" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="106"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="146"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2734,21 +3011,21 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="29"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="120"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2770,17 +3047,17 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="120"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2802,23 +3079,23 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="30" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="115"/>
+      <c r="F30" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="147" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="2"/>
@@ -2842,25 +3119,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="108"/>
+      <c r="A31" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="100"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="120"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2882,21 +3159,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="100"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="61"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="G32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="120"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2918,19 +3195,16 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="120"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2952,21 +3226,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="30" t="s">
+      <c r="A34" s="86"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="90"/>
+      <c r="F34" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="147" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="3"/>
@@ -2990,25 +3266,27 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="15"/>
+      <c r="A35" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="100"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="120"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3030,19 +3308,21 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="15"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="70"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="120"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3064,19 +3344,19 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="21">
-        <v>44742</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="15"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="118"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="120"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3098,19 +3378,23 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="15"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="62"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="120" t="s">
+        <v>6</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3132,23 +3416,15 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A39" s="92"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="147"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3170,23 +3446,27 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="15"/>
+      <c r="A40" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="100"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="120"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3208,19 +3488,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="15"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="70"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="120"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3242,19 +3524,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="21">
-        <v>36703</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="15"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="120"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3276,19 +3556,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="15"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="62"/>
+      <c r="F43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3310,22 +3590,22 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>7</v>
+      <c r="A44" s="56"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="147" t="s">
+        <v>6</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3348,23 +3628,25 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="15"/>
+      <c r="A45" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="120"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3386,19 +3668,21 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="15"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="70"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="120"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3420,19 +3704,19 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="21">
-        <v>44740</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="15"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="70"/>
+      <c r="F47" s="154">
+        <v>500</v>
+      </c>
+      <c r="G47" s="155"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="120"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3454,19 +3738,23 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="15"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="64"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="130" t="s">
+        <v>6</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3488,23 +3776,25 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A49" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="100"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="120"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3526,23 +3816,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="15"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="70"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="120"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3564,19 +3852,19 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="15"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="70"/>
+      <c r="F51" s="18">
+        <v>9999999999</v>
+      </c>
+      <c r="G51" s="125"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="120"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3598,19 +3886,23 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="21">
-        <v>44741</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="15"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="64"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="130" t="s">
+        <v>6</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3632,19 +3924,27 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="15"/>
+      <c r="A53" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="135"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="146"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3666,21 +3966,21 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="71"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="80"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="19" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="70"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="122" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="3"/>
@@ -3704,23 +4004,15 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="15"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="130"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3742,17 +4034,25 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="76" t="s">
-        <v>35</v>
+      <c r="A56" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="66"/>
+      <c r="C56" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="99" t="s">
+        <v>27</v>
       </c>
       <c r="E56" s="100"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="120"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3774,15 +4074,23 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="69"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="15"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="70"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="122" t="s">
+        <v>6</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3804,15 +4112,15 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="15"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="130"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3834,21 +4142,25 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="119"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A59" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="66"/>
+      <c r="C59" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="100"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="120"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3870,15 +4182,23 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="70"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="122" t="s">
+        <v>6</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3900,15 +4220,15 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="130"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3930,15 +4250,25 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="A62" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="66"/>
+      <c r="C62" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="100"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="120"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3960,15 +4290,23 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="70"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="122" t="s">
+        <v>6</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3990,15 +4328,15 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="130"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4020,15 +4358,25 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="A65" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="66"/>
+      <c r="C65" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="120"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4050,6 +4398,23 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="55"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="70"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="122" t="s">
+        <v>6</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4071,6 +4436,15 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="126"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="131"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4092,6 +4466,27 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="73"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="120"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4113,6 +4508,21 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="55"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="70"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="120"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4134,6 +4544,18 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="55"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="70"/>
+      <c r="F70" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="117"/>
+      <c r="I70" s="157"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4155,15 +4577,19 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="70"/>
+      <c r="F71" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" s="125"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="122"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4185,15 +4611,23 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="152"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -7754,997 +8188,272 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="3"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-    </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-    </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-    </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3"/>
-      <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
-      <c r="U194" s="3"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-      <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-    </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-      <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
-      <c r="U195" s="3"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-      <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-    </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
-      <c r="U196" s="3"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-      <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-    </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
-      <c r="U197" s="3"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-    </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
-      <c r="U198" s="3"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-      <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-    </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-      <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-      <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-    </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-      <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-    </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
-      <c r="U201" s="3"/>
-      <c r="V201" s="3"/>
-      <c r="W201" s="3"/>
-      <c r="X201" s="3"/>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
-      <c r="AA201" s="3"/>
-      <c r="AB201" s="3"/>
-    </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
-      <c r="P202" s="3"/>
-      <c r="Q202" s="3"/>
-      <c r="R202" s="3"/>
-      <c r="S202" s="3"/>
-      <c r="T202" s="3"/>
-      <c r="U202" s="3"/>
-      <c r="V202" s="3"/>
-      <c r="W202" s="3"/>
-      <c r="X202" s="3"/>
-      <c r="Y202" s="3"/>
-      <c r="Z202" s="3"/>
-      <c r="AA202" s="3"/>
-      <c r="AB202" s="3"/>
-    </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
-      <c r="P203" s="3"/>
-      <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
-      <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
-      <c r="U203" s="3"/>
-      <c r="V203" s="3"/>
-      <c r="W203" s="3"/>
-      <c r="X203" s="3"/>
-      <c r="Y203" s="3"/>
-      <c r="Z203" s="3"/>
-      <c r="AA203" s="3"/>
-      <c r="AB203" s="3"/>
-    </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-      <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
-      <c r="U204" s="3"/>
-      <c r="V204" s="3"/>
-      <c r="W204" s="3"/>
-      <c r="X204" s="3"/>
-      <c r="Y204" s="3"/>
-      <c r="Z204" s="3"/>
-      <c r="AA204" s="3"/>
-      <c r="AB204" s="3"/>
-    </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
-      <c r="P205" s="3"/>
-      <c r="Q205" s="3"/>
-      <c r="R205" s="3"/>
-      <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
-      <c r="U205" s="3"/>
-      <c r="V205" s="3"/>
-      <c r="W205" s="3"/>
-      <c r="X205" s="3"/>
-      <c r="Y205" s="3"/>
-      <c r="Z205" s="3"/>
-      <c r="AA205" s="3"/>
-      <c r="AB205" s="3"/>
-    </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
-      <c r="P206" s="3"/>
-      <c r="Q206" s="3"/>
-      <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
-      <c r="U206" s="3"/>
-      <c r="V206" s="3"/>
-      <c r="W206" s="3"/>
-      <c r="X206" s="3"/>
-      <c r="Y206" s="3"/>
-      <c r="Z206" s="3"/>
-      <c r="AA206" s="3"/>
-      <c r="AB206" s="3"/>
-    </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
-      <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
-      <c r="U207" s="3"/>
-      <c r="V207" s="3"/>
-      <c r="W207" s="3"/>
-      <c r="X207" s="3"/>
-      <c r="Y207" s="3"/>
-      <c r="Z207" s="3"/>
-      <c r="AA207" s="3"/>
-      <c r="AB207" s="3"/>
-    </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
-      <c r="R208" s="3"/>
-      <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
-      <c r="U208" s="3"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="3"/>
-      <c r="X208" s="3"/>
-      <c r="Y208" s="3"/>
-      <c r="Z208" s="3"/>
-      <c r="AA208" s="3"/>
-      <c r="AB208" s="3"/>
-    </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
-      <c r="R209" s="3"/>
-      <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
-      <c r="U209" s="3"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="3"/>
-      <c r="X209" s="3"/>
-      <c r="Y209" s="3"/>
-      <c r="Z209" s="3"/>
-      <c r="AA209" s="3"/>
-      <c r="AB209" s="3"/>
-    </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
-      <c r="U210" s="3"/>
-      <c r="V210" s="3"/>
-      <c r="W210" s="3"/>
-      <c r="X210" s="3"/>
-      <c r="Y210" s="3"/>
-      <c r="Z210" s="3"/>
-      <c r="AA210" s="3"/>
-      <c r="AB210" s="3"/>
-    </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
-      <c r="R211" s="3"/>
-      <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
-      <c r="U211" s="3"/>
-      <c r="V211" s="3"/>
-      <c r="W211" s="3"/>
-      <c r="X211" s="3"/>
-      <c r="Y211" s="3"/>
-      <c r="Z211" s="3"/>
-      <c r="AA211" s="3"/>
-      <c r="AB211" s="3"/>
-    </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
-      <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
-      <c r="U212" s="3"/>
-      <c r="V212" s="3"/>
-      <c r="W212" s="3"/>
-      <c r="X212" s="3"/>
-      <c r="Y212" s="3"/>
-      <c r="Z212" s="3"/>
-      <c r="AA212" s="3"/>
-      <c r="AB212" s="3"/>
-    </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-      <c r="Y213" s="3"/>
-      <c r="Z213" s="3"/>
-      <c r="AA213" s="3"/>
-      <c r="AB213" s="3"/>
-    </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-      <c r="Y214" s="3"/>
-      <c r="Z214" s="3"/>
-      <c r="AA214" s="3"/>
-      <c r="AB214" s="3"/>
-    </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
-      <c r="R215" s="3"/>
-      <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
-      <c r="W215" s="3"/>
-      <c r="X215" s="3"/>
-      <c r="Y215" s="3"/>
-      <c r="Z215" s="3"/>
-      <c r="AA215" s="3"/>
-      <c r="AB215" s="3"/>
-    </row>
-    <row r="216" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-      <c r="AA216" s="2"/>
-      <c r="AB216" s="2"/>
-    </row>
-    <row r="217" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
-      <c r="AA217" s="2"/>
-      <c r="AB217" s="2"/>
-    </row>
-    <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-      <c r="AA218" s="2"/>
-      <c r="AB218" s="2"/>
-    </row>
-    <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
-      <c r="AA219" s="2"/>
-      <c r="AB219" s="2"/>
-    </row>
-    <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
-      <c r="AA220" s="2"/>
-      <c r="AB220" s="2"/>
-    </row>
-    <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
-      <c r="AA221" s="2"/>
-      <c r="AB221" s="2"/>
-    </row>
-    <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
-      <c r="AA222" s="2"/>
-      <c r="AB222" s="2"/>
-    </row>
-    <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
-      <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
-    </row>
-    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+      <c r="V191" s="2"/>
+      <c r="W191" s="2"/>
+      <c r="X191" s="2"/>
+      <c r="Y191" s="2"/>
+      <c r="Z191" s="2"/>
+      <c r="AA191" s="2"/>
+      <c r="AB191" s="2"/>
+    </row>
+    <row r="192" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
+      <c r="X192" s="2"/>
+      <c r="Y192" s="2"/>
+      <c r="Z192" s="2"/>
+      <c r="AA192" s="2"/>
+      <c r="AB192" s="2"/>
+    </row>
+    <row r="193" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2"/>
+      <c r="X193" s="2"/>
+      <c r="Y193" s="2"/>
+      <c r="Z193" s="2"/>
+      <c r="AA193" s="2"/>
+      <c r="AB193" s="2"/>
+    </row>
+    <row r="194" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="2"/>
+      <c r="Y194" s="2"/>
+      <c r="Z194" s="2"/>
+      <c r="AA194" s="2"/>
+      <c r="AB194" s="2"/>
+    </row>
+    <row r="195" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="2"/>
+      <c r="X195" s="2"/>
+      <c r="Y195" s="2"/>
+      <c r="Z195" s="2"/>
+      <c r="AA195" s="2"/>
+      <c r="AB195" s="2"/>
+    </row>
+    <row r="196" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+      <c r="X196" s="2"/>
+      <c r="Y196" s="2"/>
+      <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
+      <c r="AB196" s="2"/>
+    </row>
+    <row r="197" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+      <c r="X197" s="2"/>
+      <c r="Y197" s="2"/>
+      <c r="Z197" s="2"/>
+      <c r="AA197" s="2"/>
+      <c r="AB197" s="2"/>
+    </row>
+    <row r="198" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+    </row>
+    <row r="199" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9499,47 +9208,99 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="C55:C59"/>
+  <mergeCells count="114">
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C27:C30"/>
@@ -9556,65 +9317,13 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B35:B54"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTestDocs_MOBILE-12072022.xlsx
+++ b/ScenarioTestDocs_MOBILE-12072022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="119">
   <si>
     <t>Created By</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Chandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Appointment  from CURA Healthcare Service </t>
   </si>
   <si>
     <t>ACCOUNTS</t>
@@ -660,6 +657,12 @@
   <si>
     <t xml:space="preserve">username = sum4                           password = sum4                 </t>
   </si>
+  <si>
+    <t>BU_016</t>
+  </si>
+  <si>
+    <t>Review Bank App Mobile</t>
+  </si>
 </sst>
 </file>
 
@@ -676,25 +679,30 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -702,6 +710,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1329,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1493,10 +1502,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,38 +1612,151 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,226 +1767,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2009,20 +2021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="129"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2075,22 +2087,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="104">
-        <v>44741</v>
-      </c>
-      <c r="H3" s="102"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="131">
+        <v>44754</v>
+      </c>
+      <c r="H3" s="127"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2143,15 +2155,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="154" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2189,12 +2201,12 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="92"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -2260,10 +2272,10 @@
       <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
@@ -2297,25 +2309,25 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="82"/>
+      <c r="B9" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="111"/>
       <c r="F9" s="27"/>
       <c r="G9" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="2"/>
@@ -2339,19 +2351,19 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="88"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="113"/>
       <c r="F10" s="27"/>
       <c r="G10" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="2"/>
@@ -2375,15 +2387,15 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="88"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="113"/>
       <c r="F11" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="45"/>
@@ -2409,22 +2421,22 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="80"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="115"/>
       <c r="F12" s="33"/>
       <c r="G12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="47" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>49</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
@@ -2447,23 +2459,23 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="82"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="111"/>
       <c r="F13" s="27"/>
       <c r="G13" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="2"/>
@@ -2487,19 +2499,19 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="88"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="113"/>
       <c r="F14" s="27"/>
       <c r="G14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="2"/>
@@ -2523,15 +2535,15 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="88"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="113"/>
       <c r="F15" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
@@ -2557,22 +2569,22 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="80"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="115"/>
       <c r="F16" s="40"/>
       <c r="G16" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
@@ -2595,23 +2607,23 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="82"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="111"/>
       <c r="F17" s="27"/>
       <c r="G17" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="2"/>
@@ -2635,19 +2647,19 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="88"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="113"/>
       <c r="F18" s="27"/>
       <c r="G18" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="2"/>
@@ -2671,15 +2683,15 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="88"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="113"/>
       <c r="F19" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
@@ -2705,22 +2717,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="80"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="115"/>
       <c r="F20" s="33"/>
       <c r="G20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="144" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="I20" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2743,27 +2755,27 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="82"/>
+      <c r="B21" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="111"/>
       <c r="F21" s="53"/>
       <c r="G21" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="145"/>
+        <v>30</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="80"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2785,19 +2797,19 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="88"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="113"/>
       <c r="F22" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="43"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="145"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2819,22 +2831,22 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="80"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="115"/>
       <c r="F23" s="54"/>
       <c r="G23" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="144" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
@@ -2857,25 +2869,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="82"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="111"/>
       <c r="F24" s="27"/>
       <c r="G24" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="145"/>
+        <v>30</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="80"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -2897,19 +2909,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="88"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="113"/>
       <c r="F25" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="43"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="145"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="80"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2931,22 +2943,22 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="80"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="115"/>
       <c r="F26" s="40"/>
       <c r="G26" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="144" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
@@ -2969,27 +2981,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="106"/>
+      <c r="E27" s="132"/>
       <c r="F27" s="36"/>
       <c r="G27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="146"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3011,21 +3023,21 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="62"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="124"/>
       <c r="F28" s="26"/>
       <c r="G28" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="120"/>
+        <v>32</v>
+      </c>
+      <c r="I28" s="59"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3047,17 +3059,17 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="62"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="124"/>
       <c r="F29" s="37"/>
       <c r="G29" s="24"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="120"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -3079,23 +3091,23 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="115"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="149"/>
       <c r="F30" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="147" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="2"/>
@@ -3119,25 +3131,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="100"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="107"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="120"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3159,21 +3171,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="61"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="144"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="120"/>
+        <v>32</v>
+      </c>
+      <c r="I32" s="59"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3195,16 +3207,16 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="73"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="94"/>
       <c r="G33" s="15"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="120"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3226,23 +3238,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="116" t="s">
+      <c r="A34" s="142"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="153"/>
+      <c r="F34" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="H34" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="147" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="3"/>
@@ -3266,27 +3278,27 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="100"/>
+      <c r="B35" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="107"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="120"/>
+        <v>30</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="59"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3308,21 +3320,21 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="70"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="96"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="117" t="s">
-        <v>63</v>
+      <c r="G36" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="120"/>
+        <v>62</v>
+      </c>
+      <c r="I36" s="59"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3344,19 +3356,19 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="60" t="s">
+      <c r="A37" s="119"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="96"/>
+      <c r="F37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="120"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3378,21 +3390,21 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="60" t="s">
+      <c r="A38" s="119"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="124"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="120" t="s">
+      <c r="H38" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="3"/>
@@ -3416,15 +3428,15 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="71"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="125"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="147"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="82"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3446,27 +3458,27 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="100"/>
+      <c r="C40" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="107"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="120"/>
+      <c r="G40" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="59"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3488,21 +3500,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="60" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="96"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="125" t="s">
-        <v>75</v>
-      </c>
       <c r="H41" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="120"/>
+        <v>74</v>
+      </c>
+      <c r="I41" s="59"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3524,17 +3536,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="70"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="96"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="120"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3556,19 +3568,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="60" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="124"/>
+      <c r="F43" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="120"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3590,21 +3602,21 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="64"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="116"/>
       <c r="F44" s="21"/>
       <c r="G44" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="3"/>
@@ -3628,25 +3640,25 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="100"/>
+      <c r="A45" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="107"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="120"/>
+      <c r="G45" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="59"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3668,21 +3680,21 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="70"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="96"/>
       <c r="F46" s="17"/>
       <c r="G46" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="120"/>
+        <v>74</v>
+      </c>
+      <c r="I46" s="59"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3704,19 +3716,19 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="154">
+      <c r="A47" s="88"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="84">
         <v>500</v>
       </c>
-      <c r="G47" s="155"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="120"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3738,21 +3750,21 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="126"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="63" t="s">
+      <c r="A48" s="89"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="116"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="128" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="130" t="s">
+      <c r="H48" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="68" t="s">
         <v>6</v>
       </c>
       <c r="J48" s="3"/>
@@ -3776,25 +3788,25 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="100"/>
+      <c r="A49" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="104"/>
+      <c r="C49" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="107"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="120"/>
+      <c r="G49" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="59"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3816,21 +3828,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="70"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="96"/>
       <c r="F50" s="17"/>
       <c r="G50" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="120"/>
+        <v>74</v>
+      </c>
+      <c r="I50" s="59"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3852,19 +3864,19 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="70"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="96"/>
       <c r="F51" s="18">
         <v>9999999999</v>
       </c>
-      <c r="G51" s="125"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="120"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3886,21 +3898,21 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="126"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="130" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="116"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="68" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="3"/>
@@ -3924,27 +3936,27 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="146"/>
+      <c r="A53" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="118"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="81"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3966,21 +3978,21 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="60" t="s">
+      <c r="A54" s="88"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="125" t="s">
-        <v>95</v>
-      </c>
       <c r="H54" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="3"/>
@@ -4004,15 +4016,15 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="130"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -4034,25 +4046,25 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="100"/>
+      <c r="A56" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="104"/>
+      <c r="C56" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="107"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="120"/>
+      <c r="G56" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="59"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -4074,21 +4086,21 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="70"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="96"/>
       <c r="F57" s="17"/>
       <c r="G57" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="3"/>
@@ -4112,15 +4124,15 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="130"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -4142,25 +4154,25 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="100"/>
+      <c r="A59" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="104"/>
+      <c r="C59" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="107"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="120"/>
+      <c r="G59" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="59"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -4182,21 +4194,21 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="70"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="96"/>
       <c r="F60" s="17"/>
       <c r="G60" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="3"/>
@@ -4220,15 +4232,15 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="130"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4250,25 +4262,25 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="100"/>
+      <c r="A62" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="104"/>
+      <c r="C62" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="107"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I62" s="120"/>
+      <c r="G62" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="59"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4290,21 +4302,21 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="70"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="96"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="H63" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="I63" s="122" t="s">
+      <c r="G63" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J63" s="3"/>
@@ -4328,15 +4340,15 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="130"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4358,25 +4370,25 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="73"/>
+      <c r="A65" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="104"/>
+      <c r="C65" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="94"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="120"/>
+      <c r="G65" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="59"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4398,21 +4410,21 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="70"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="96"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="117" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="122" t="s">
+      <c r="G66" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J66" s="3"/>
@@ -4436,15 +4448,15 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="126"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="131"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4466,27 +4478,27 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="150" t="s">
+      <c r="A68" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="73"/>
+      <c r="D68" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="94"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="120"/>
+      <c r="G68" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="59"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4508,21 +4520,21 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
-      <c r="B69" s="151"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="70"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="96"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="I69" s="120"/>
+      <c r="G69" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="59"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4544,18 +4556,18 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
-      <c r="B70" s="148"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="117"/>
-      <c r="I70" s="157"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="96"/>
+      <c r="F70" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="56"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4577,19 +4589,19 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
-      <c r="B71" s="148"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="70"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="96"/>
       <c r="F71" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="125"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="122"/>
+        <v>114</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="61"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4611,19 +4623,19 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="126"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="152"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="129" t="s">
-        <v>116</v>
+      <c r="A72" s="89"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="102"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>6</v>
@@ -9210,6 +9222,96 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="C68:C72"/>
     <mergeCell ref="D68:E68"/>
@@ -9234,96 +9336,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTestDocs_MOBILE-12072022.xlsx
+++ b/ScenarioTestDocs_MOBILE-12072022.xlsx
@@ -108,10 +108,6 @@
     <t>3. Tap add new accounts</t>
   </si>
   <si>
-    <t>account name = account7
-balance = 500</t>
-  </si>
-  <si>
     <t>Apps open</t>
   </si>
   <si>
@@ -122,10 +118,6 @@
   </si>
   <si>
     <t>Account created</t>
-  </si>
-  <si>
-    <t>account name = account1
-balance = 500</t>
   </si>
   <si>
     <t>You already have an account with that name</t>
@@ -205,9 +197,6 @@
   </si>
   <si>
     <t>redirect to dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> username = sum4 1324                          password = sum434                </t>
   </si>
   <si>
     <t>Incorrect username or password</t>
@@ -646,12 +635,6 @@
     <t>Page transfer show</t>
   </si>
   <si>
-    <t>account1                                            500</t>
-  </si>
-  <si>
-    <t>account2</t>
-  </si>
-  <si>
     <t>Transfer of $500.00 successfully made</t>
   </si>
   <si>
@@ -662,6 +645,23 @@
   </si>
   <si>
     <t>Review Bank App Mobile</t>
+  </si>
+  <si>
+    <t>firstname = sum4
+lastname = sum4                       country = indonesia                     username = sum4                            password = sum4                       confirm password = sum4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username = sum4324                          password = sum434                </t>
+  </si>
+  <si>
+    <t>account name = account77
+balance = 500</t>
+  </si>
+  <si>
+    <t>account77                                           50</t>
+  </si>
+  <si>
+    <t>account99</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1451,9 +1451,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1501,9 +1498,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1597,11 +1591,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1612,87 +1630,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1700,25 +1679,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,59 +1697,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2021,20 +2024,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2087,22 +2090,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="129"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="131">
+      <c r="F3" s="100"/>
+      <c r="G3" s="120">
         <v>44754</v>
       </c>
-      <c r="H3" s="127"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2155,15 +2158,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="111" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2201,7 +2204,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="120"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="10">
         <v>16</v>
       </c>
@@ -2272,10 +2275,10 @@
       <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="156"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
@@ -2309,27 +2312,27 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="111"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="46"/>
+      <c r="G9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="45"/>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2351,21 +2354,21 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="113"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="108"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="46"/>
+      <c r="G10" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2387,19 +2390,19 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="108"/>
+      <c r="F11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2421,22 +2424,22 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="115"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="102"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>48</v>
+      <c r="G12" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
@@ -2459,25 +2462,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="110" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="46"/>
+      <c r="G13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2499,21 +2502,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="113"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="108"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="46"/>
+      <c r="G14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="45"/>
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2535,19 +2538,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="108"/>
+      <c r="F15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2569,22 +2572,22 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>48</v>
+      <c r="A16" s="90"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="102"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
@@ -2607,25 +2610,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="110" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="111"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="46"/>
+      <c r="G17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="45"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2647,21 +2650,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="113"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="108"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="46"/>
+      <c r="G18" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="45"/>
       <c r="J18" s="2"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2683,19 +2686,19 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="108"/>
+      <c r="F19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="2"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2717,22 +2720,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="115"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="102"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="79" t="s">
-        <v>48</v>
+      <c r="G20" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>46</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2755,27 +2758,27 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="110" t="s">
+      <c r="B21" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="80"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="78"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2797,19 +2800,19 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="113"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="108"/>
       <c r="F22" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="80"/>
+        <v>111</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2831,22 +2834,22 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>48</v>
+      <c r="A23" s="89"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>46</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
@@ -2869,25 +2872,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="110" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="111"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="80"/>
+      <c r="G24" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="78"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -2909,19 +2912,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="80"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="108"/>
+      <c r="F25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2943,22 +2946,22 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="114" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>48</v>
+      <c r="H26" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>46</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
@@ -2981,27 +2984,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="132"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="81"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3023,21 +3026,21 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="151"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="95" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="124"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="26"/>
       <c r="G28" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="I28" s="57"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3059,17 +3062,17 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="93" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="124"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="37"/>
       <c r="G29" s="24"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="59"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -3091,23 +3094,23 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="38" t="s">
-        <v>29</v>
+      <c r="A30" s="95"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="130"/>
+      <c r="F30" s="157" t="s">
+        <v>116</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="80" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="2"/>
@@ -3131,25 +3134,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="106" t="s">
+      <c r="B31" s="129"/>
+      <c r="C31" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="107"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3171,21 +3174,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="95" t="s">
+      <c r="A32" s="105"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="144"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="I32" s="57"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3207,16 +3210,16 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="93" t="s">
+      <c r="A33" s="105"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="94"/>
+      <c r="E33" s="92"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="59"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3238,23 +3241,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="142"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="153"/>
-      <c r="F34" s="55" t="s">
-        <v>34</v>
+      <c r="A34" s="106"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="158" t="s">
+        <v>116</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="80" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="3"/>
@@ -3278,27 +3281,27 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="106" t="s">
+      <c r="B35" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="107"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="59"/>
+        <v>29</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="57"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3320,21 +3323,21 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="119"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="96"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="135"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="59"/>
+      <c r="G36" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3356,19 +3359,19 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="119"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="96"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="135"/>
       <c r="F37" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="59"/>
+        <v>62</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3390,21 +3393,21 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="119"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="124"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="116"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="59" t="s">
+      <c r="G38" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="57" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="3"/>
@@ -3428,15 +3431,15 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="120"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="125"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="82"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3458,27 +3461,27 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="103" t="s">
+      <c r="A40" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="106" t="s">
+      <c r="D40" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="134"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="59"/>
+      <c r="G40" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="57"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3500,21 +3503,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="96"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="135"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="64" t="s">
-        <v>74</v>
+      <c r="G41" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="59"/>
+        <v>71</v>
+      </c>
+      <c r="I41" s="57"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3536,17 +3539,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="96"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="135"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="59"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3568,19 +3571,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="124"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="116"/>
       <c r="F43" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="59"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3602,21 +3605,21 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="157"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="116"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="137"/>
       <c r="F44" s="21"/>
       <c r="G44" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="80" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="3"/>
@@ -3640,25 +3643,25 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="106" t="s">
+      <c r="A45" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="107"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="59"/>
+      <c r="G45" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="57"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3680,21 +3683,21 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="96"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="135"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="50" t="s">
-        <v>74</v>
+      <c r="G46" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="59"/>
+        <v>71</v>
+      </c>
+      <c r="I46" s="57"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3716,19 +3719,19 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="84">
+      <c r="A47" s="131"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="135"/>
+      <c r="F47" s="82">
         <v>500</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="59"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3750,21 +3753,21 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="116"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="68" t="s">
+      <c r="A48" s="132"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="137"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J48" s="3"/>
@@ -3788,25 +3791,25 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="104"/>
-      <c r="C49" s="90" t="s">
+      <c r="A49" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="B49" s="139"/>
+      <c r="C49" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="107"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="59"/>
+      <c r="G49" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="57"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3828,21 +3831,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="96"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="135"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="50" t="s">
-        <v>74</v>
+      <c r="G50" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="59"/>
+        <v>71</v>
+      </c>
+      <c r="I50" s="57"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3864,19 +3867,19 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="96"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="135"/>
       <c r="F51" s="18">
         <v>9999999999</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="59"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3898,21 +3901,21 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="89"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="116"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="68" t="s">
+      <c r="A52" s="132"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="137"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="3"/>
@@ -3936,27 +3939,27 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="117" t="s">
+      <c r="A53" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="81"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="79"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3978,21 +3981,21 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="96"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="135"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="64" t="s">
-        <v>94</v>
+      <c r="G54" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="3"/>
@@ -4016,15 +4019,15 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="68"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -4046,25 +4049,25 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="106" t="s">
+      <c r="A56" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="139"/>
+      <c r="C56" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="107"/>
+      <c r="E56" s="134"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="59"/>
+      <c r="G56" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="57"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -4086,21 +4089,21 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="95" t="s">
+      <c r="A57" s="131"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="96"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="50" t="s">
-        <v>95</v>
+      <c r="G57" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="3"/>
@@ -4124,15 +4127,15 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="66"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -4154,25 +4157,25 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="106" t="s">
+      <c r="A59" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="139"/>
+      <c r="C59" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="107"/>
+      <c r="E59" s="134"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="59"/>
+      <c r="G59" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="57"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -4194,21 +4197,21 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="96"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="135"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="50" t="s">
-        <v>100</v>
+      <c r="G60" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I60" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="3"/>
@@ -4232,15 +4235,15 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4262,25 +4265,25 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="106" t="s">
+      <c r="A62" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="139"/>
+      <c r="C62" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="107"/>
+      <c r="E62" s="134"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="59"/>
+      <c r="G62" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="57"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4302,21 +4305,21 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="88"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="96"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="135"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="61" t="s">
+      <c r="G63" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J63" s="3"/>
@@ -4340,15 +4343,15 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="88"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="66"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4370,25 +4373,25 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="93" t="s">
+      <c r="A65" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="139"/>
+      <c r="C65" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="94"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="59"/>
+      <c r="G65" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="57"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4410,21 +4413,21 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="88"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="96"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="135"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" s="61" t="s">
+      <c r="G66" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J66" s="3"/>
@@ -4448,15 +4451,15 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="89"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="69"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4478,27 +4481,27 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="158" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="93" t="s">
+      <c r="A68" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="94"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="59"/>
+      <c r="G68" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="57"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4520,21 +4523,21 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="88"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="96"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="135"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="59"/>
+      <c r="G69" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" s="57"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4556,18 +4559,18 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="88"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="96"/>
-      <c r="F70" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" s="56"/>
-      <c r="I70" s="87"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="135"/>
+      <c r="F70" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" s="54"/>
+      <c r="I70" s="85"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4589,19 +4592,19 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="88"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="96"/>
-      <c r="F71" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="64"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="61"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="135"/>
+      <c r="F71" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="62"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="59"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4623,19 +4626,19 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="89"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="102"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="H72" s="67" t="s">
-        <v>115</v>
+      <c r="A72" s="132"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="155"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>6</v>
@@ -9222,24 +9225,72 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -9264,78 +9315,30 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ScenarioTestDocs_MOBILE-12072022.xlsx
+++ b/ScenarioTestDocs_MOBILE-12072022.xlsx
@@ -108,6 +108,10 @@
     <t>3. Tap add new accounts</t>
   </si>
   <si>
+    <t>account name = account7
+balance = 500</t>
+  </si>
+  <si>
     <t>Apps open</t>
   </si>
   <si>
@@ -118,6 +122,10 @@
   </si>
   <si>
     <t>Account created</t>
+  </si>
+  <si>
+    <t>account name = account1
+balance = 500</t>
   </si>
   <si>
     <t>You already have an account with that name</t>
@@ -197,6 +205,9 @@
   </si>
   <si>
     <t>redirect to dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username = sum4 1324                          password = sum434                </t>
   </si>
   <si>
     <t>Incorrect username or password</t>
@@ -635,6 +646,12 @@
     <t>Page transfer show</t>
   </si>
   <si>
+    <t>account1                                            500</t>
+  </si>
+  <si>
+    <t>account2</t>
+  </si>
+  <si>
     <t>Transfer of $500.00 successfully made</t>
   </si>
   <si>
@@ -645,23 +662,6 @@
   </si>
   <si>
     <t>Review Bank App Mobile</t>
-  </si>
-  <si>
-    <t>firstname = sum4
-lastname = sum4                       country = indonesia                     username = sum4                            password = sum4                       confirm password = sum4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> username = sum4324                          password = sum434                </t>
-  </si>
-  <si>
-    <t>account name = account77
-balance = 500</t>
-  </si>
-  <si>
-    <t>account77                                           50</t>
-  </si>
-  <si>
-    <t>account99</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1451,6 +1451,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1501,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1591,25 +1597,166 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1620,170 +1767,20 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2024,20 +2021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="129"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="118"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2090,22 +2087,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="120">
+      <c r="F3" s="129"/>
+      <c r="G3" s="131">
         <v>44754</v>
       </c>
-      <c r="H3" s="118"/>
+      <c r="H3" s="127"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2158,15 +2155,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="154" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2204,7 +2201,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="112"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="10">
         <v>16</v>
       </c>
@@ -2275,10 +2272,10 @@
       <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="114"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
@@ -2312,27 +2309,27 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="123" t="s">
+      <c r="B9" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="45"/>
+      <c r="G9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="46"/>
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2354,21 +2351,21 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="108"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="113"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="45"/>
+      <c r="G10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="46"/>
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2390,19 +2387,19 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="113"/>
+      <c r="F11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2424,22 +2421,22 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="102"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="115"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>46</v>
+      <c r="G12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
@@ -2462,25 +2459,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="103" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="45"/>
+      <c r="G13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="46"/>
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2502,21 +2499,21 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="108"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="113"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="45"/>
+      <c r="G14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="46"/>
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2538,19 +2535,19 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2572,22 +2569,22 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>46</v>
+      <c r="A16" s="135"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="115"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
@@ -2610,25 +2607,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="103" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="G17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="46"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2650,21 +2647,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="108"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="113"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="45"/>
+      <c r="G18" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="46"/>
       <c r="J18" s="2"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2686,19 +2683,19 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="2"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2720,22 +2717,22 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="102"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="115"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>46</v>
+      <c r="G20" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
@@ -2758,27 +2755,27 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="103" t="s">
+      <c r="B21" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="78"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="80"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2800,19 +2797,19 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="108"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="113"/>
       <c r="F22" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="78"/>
+        <v>116</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2834,22 +2831,22 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>46</v>
+      <c r="A23" s="134"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="115"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
@@ -2872,25 +2869,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="103" t="s">
+      <c r="B24" s="139"/>
+      <c r="C24" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="78"/>
+      <c r="G24" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="80"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -2912,19 +2909,19 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="108"/>
-      <c r="F25" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="78"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="80"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2946,22 +2943,22 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="43" t="s">
+      <c r="A26" s="134"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="77" t="s">
-        <v>46</v>
+      <c r="E26" s="115"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>48</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
@@ -2984,27 +2981,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="122"/>
+      <c r="E27" s="132"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="73" t="s">
+      <c r="G27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="H27" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="81"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3026,21 +3023,21 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="94"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="115" t="s">
+      <c r="A28" s="151"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="26"/>
       <c r="G28" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="I28" s="59"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3062,17 +3059,17 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="91" t="s">
+      <c r="A29" s="151"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="116"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="37"/>
       <c r="G29" s="24"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -3094,23 +3091,23 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="157" t="s">
-        <v>116</v>
+      <c r="A30" s="152"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="149"/>
+      <c r="F30" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="2"/>
@@ -3134,25 +3131,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144" t="s">
+      <c r="A31" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="133" t="s">
+      <c r="B31" s="147"/>
+      <c r="C31" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="134"/>
+      <c r="E31" s="107"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="I31" s="59"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3174,21 +3171,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="105"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="115" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="145"/>
+      <c r="E32" s="144"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="I32" s="59"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3210,16 +3207,16 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="105"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="91" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="92"/>
+      <c r="E33" s="94"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3241,23 +3238,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="110"/>
-      <c r="F34" s="158" t="s">
-        <v>116</v>
+      <c r="A34" s="142"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="153"/>
+      <c r="F34" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J34" s="3"/>
@@ -3281,27 +3278,27 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="133" t="s">
+      <c r="B35" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="134"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="17"/>
       <c r="G35" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="59"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3323,21 +3320,21 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="140"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="135"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="96"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="57"/>
+      <c r="G36" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="59"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3359,19 +3356,19 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="140"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="135"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="96"/>
       <c r="F37" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="57"/>
+        <v>65</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3393,21 +3390,21 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="116"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="124"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="57" t="s">
+      <c r="G38" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="59" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="3"/>
@@ -3431,15 +3428,15 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="112"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="143"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="125"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="80"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="82"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3461,27 +3458,27 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="96" t="s">
+      <c r="A40" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="133" t="s">
+      <c r="C40" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="134"/>
+      <c r="E40" s="107"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="57"/>
+      <c r="G40" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="59"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3503,21 +3500,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="135"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="96"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="62" t="s">
-        <v>71</v>
+      <c r="G41" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="I41" s="59"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3539,17 +3536,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="135"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="96"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3571,19 +3568,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="116"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="124"/>
       <c r="F43" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3605,21 +3602,21 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="136" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="137"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="116"/>
       <c r="F44" s="21"/>
       <c r="G44" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="82" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="3"/>
@@ -3643,25 +3640,25 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="139"/>
-      <c r="C45" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="133" t="s">
+      <c r="A45" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="134"/>
+      <c r="E45" s="107"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="57"/>
+      <c r="G45" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="59"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3683,21 +3680,21 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="135"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="96"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="49" t="s">
-        <v>71</v>
+      <c r="G46" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="I46" s="59"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3719,19 +3716,19 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="135"/>
-      <c r="F47" s="82">
+      <c r="A47" s="88"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="84">
         <v>500</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="57"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3753,21 +3750,21 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="132"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="66" t="s">
+      <c r="A48" s="89"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="116"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="68" t="s">
         <v>6</v>
       </c>
       <c r="J48" s="3"/>
@@ -3791,25 +3788,25 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="104"/>
+      <c r="C49" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="139"/>
-      <c r="C49" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="134"/>
+      <c r="E49" s="107"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="57"/>
+      <c r="G49" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="59"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3831,21 +3828,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="135"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="96"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="49" t="s">
-        <v>71</v>
+      <c r="G50" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="I50" s="59"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3867,19 +3864,19 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="135"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="96"/>
       <c r="F51" s="18">
         <v>9999999999</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="57"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3901,21 +3898,21 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="132"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="137"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="66" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="116"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="68" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="3"/>
@@ -3939,27 +3936,27 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="121" t="s">
+      <c r="A53" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="148"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="79"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="81"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3981,21 +3978,21 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="135"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="96"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="62" t="s">
-        <v>91</v>
+      <c r="G54" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="3"/>
@@ -4019,15 +4016,15 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -4049,25 +4046,25 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="133" t="s">
+      <c r="A56" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="104"/>
+      <c r="C56" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="134"/>
+      <c r="E56" s="107"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="57"/>
+      <c r="G56" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="59"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -4089,21 +4086,21 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="131"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="115" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="135"/>
+      <c r="E57" s="96"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="49" t="s">
-        <v>92</v>
+      <c r="G57" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I57" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="3"/>
@@ -4127,15 +4124,15 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="131"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="66"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -4157,25 +4154,25 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="133" t="s">
+      <c r="A59" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="104"/>
+      <c r="C59" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="134"/>
+      <c r="E59" s="107"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="57"/>
+      <c r="G59" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="59"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -4197,21 +4194,21 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="131"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="135"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="96"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="49" t="s">
-        <v>97</v>
+      <c r="G60" s="50" t="s">
+        <v>100</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I60" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="3"/>
@@ -4235,15 +4232,15 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4265,25 +4262,25 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="133" t="s">
+      <c r="A62" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="104"/>
+      <c r="C62" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="134"/>
+      <c r="E62" s="107"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="57"/>
+      <c r="G62" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="59"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4305,21 +4302,21 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="115" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="135"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="96"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="59" t="s">
+      <c r="G63" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J63" s="3"/>
@@ -4343,15 +4340,15 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="131"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="66"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4373,25 +4370,25 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="139"/>
-      <c r="C65" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="91" t="s">
+      <c r="A65" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="104"/>
+      <c r="C65" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="92"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="57"/>
+      <c r="G65" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="59"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4413,21 +4410,21 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="135"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="96"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H66" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" s="59" t="s">
+      <c r="G66" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="61" t="s">
         <v>6</v>
       </c>
       <c r="J66" s="3"/>
@@ -4451,15 +4448,15 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="132"/>
-      <c r="B67" s="146"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="67"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4481,27 +4478,27 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="150" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="91" t="s">
+      <c r="A68" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="92"/>
+      <c r="E68" s="94"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="57"/>
+      <c r="G68" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="59"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4523,21 +4520,21 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="131"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="135"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="96"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="H69" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="I69" s="57"/>
+      <c r="G69" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="59"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4559,18 +4556,18 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="131"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="135"/>
-      <c r="F70" s="159" t="s">
-        <v>117</v>
-      </c>
-      <c r="H70" s="54"/>
-      <c r="I70" s="85"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="96"/>
+      <c r="F70" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="56"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4592,19 +4589,19 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="131"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="135"/>
-      <c r="F71" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="62"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="59"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="96"/>
+      <c r="F71" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="61"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4626,19 +4623,19 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="132"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="155"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H72" s="65" t="s">
-        <v>110</v>
+      <c r="A72" s="89"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="102"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>6</v>
@@ -9225,6 +9222,96 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="C68:C72"/>
     <mergeCell ref="D68:E68"/>
@@ -9249,96 +9336,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
